--- a/210621 - AG thesis/Raw/Raw qPCR files (& effluent metadata)/1910xx-1911xx/GI_Norovirus_Audrey_Garcia_Jan6_2020.xlsx
+++ b/210621 - AG thesis/Raw/Raw qPCR files (& effluent metadata)/1910xx-1911xx/GI_Norovirus_Audrey_Garcia_Jan6_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TL\Work\Research\Dr. Uyaguari\AG\210621 - AG thesis\Raw\Raw qPCR files\1910xx-1911xx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TL\Work\Research\Dr. Uyaguari\AG\AG-TL-MUD-human-enteric-viruses-quantitation\210621 - AG thesis\Raw\Raw qPCR files (&amp; effluent metadata)\1910xx-1911xx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6D2C2D-3F35-4882-806C-20F71EAE9060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219E7ECB-D822-47F2-9F1B-E190F16BC78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10332" yWindow="2940" windowWidth="10824" windowHeight="7500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="10824" windowHeight="7500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample Setup" sheetId="1" r:id="rId1"/>
@@ -1816,7 +1816,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1868,7 +1868,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -6420,7 +6420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F3887"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0"/>
+    <sheetView topLeftCell="A52" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -83611,8 +83611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AE140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B43" zoomScale="64" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" topLeftCell="C69" zoomScale="66" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J81" sqref="J81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -92923,8 +92923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="AC23" sqref="AC23"/>
+    <sheetView topLeftCell="B1" zoomScale="79" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
